--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="59">
   <si>
     <t>patient</t>
   </si>
@@ -190,6 +190,9 @@
   </si>
   <si>
     <t>time</t>
+  </si>
+  <si>
+    <t>cancer</t>
   </si>
 </sst>
 </file>
@@ -552,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,7 +604,9 @@
       <c r="C2" s="1">
         <v>101</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -615,7 +620,9 @@
       <c r="C3" s="1">
         <v>102</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -629,7 +636,9 @@
       <c r="C4" s="1">
         <v>103</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -643,7 +652,9 @@
       <c r="C5" s="1">
         <v>104</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -657,7 +668,9 @@
       <c r="C6" s="1">
         <v>105</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -671,7 +684,9 @@
       <c r="C7" s="1">
         <v>106</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -685,7 +700,9 @@
       <c r="C8" s="1">
         <v>101</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -699,7 +716,9 @@
       <c r="C9" s="1">
         <v>102</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -713,7 +732,9 @@
       <c r="C10" s="1">
         <v>103</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -727,7 +748,9 @@
       <c r="C11" s="1">
         <v>104</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -741,7 +764,9 @@
       <c r="C12" s="1">
         <v>105</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -755,7 +780,9 @@
       <c r="C13" s="1">
         <v>106</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -769,7 +796,9 @@
       <c r="C14" s="1">
         <v>101</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -783,7 +812,9 @@
       <c r="C15" s="1">
         <v>102</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -797,7 +828,9 @@
       <c r="C16" s="1">
         <v>103</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -811,7 +844,9 @@
       <c r="C17" s="1">
         <v>104</v>
       </c>
-      <c r="D17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -825,7 +860,9 @@
       <c r="C18" s="1">
         <v>105</v>
       </c>
-      <c r="D18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -839,7 +876,9 @@
       <c r="C19" s="1">
         <v>106</v>
       </c>
-      <c r="D19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -853,7 +892,9 @@
       <c r="C20" s="1">
         <v>101</v>
       </c>
-      <c r="D20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -867,7 +908,9 @@
       <c r="C21" s="1">
         <v>102</v>
       </c>
-      <c r="D21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -881,7 +924,9 @@
       <c r="C22" s="1">
         <v>103</v>
       </c>
-      <c r="D22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -895,7 +940,9 @@
       <c r="C23" s="1">
         <v>104</v>
       </c>
-      <c r="D23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -909,7 +956,9 @@
       <c r="C24" s="1">
         <v>105</v>
       </c>
-      <c r="D24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -923,7 +972,9 @@
       <c r="C25" s="1">
         <v>106</v>
       </c>
-      <c r="D25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -937,7 +988,9 @@
       <c r="C26" s="1">
         <v>101</v>
       </c>
-      <c r="D26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -951,7 +1004,9 @@
       <c r="C27" s="1">
         <v>102</v>
       </c>
-      <c r="D27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -965,7 +1020,9 @@
       <c r="C28" s="1">
         <v>103</v>
       </c>
-      <c r="D28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -979,7 +1036,9 @@
       <c r="C29" s="1">
         <v>104</v>
       </c>
-      <c r="D29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -993,7 +1052,9 @@
       <c r="C30" s="1">
         <v>105</v>
       </c>
-      <c r="D30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -1007,7 +1068,9 @@
       <c r="C31" s="1">
         <v>106</v>
       </c>
-      <c r="D31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -1021,7 +1084,9 @@
       <c r="C32" s="1">
         <v>101</v>
       </c>
-      <c r="D32" s="1"/>
+      <c r="D32" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -1035,7 +1100,9 @@
       <c r="C33" s="1">
         <v>102</v>
       </c>
-      <c r="D33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -1049,7 +1116,9 @@
       <c r="C34" s="1">
         <v>103</v>
       </c>
-      <c r="D34" s="1"/>
+      <c r="D34" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -1063,7 +1132,9 @@
       <c r="C35" s="1">
         <v>104</v>
       </c>
-      <c r="D35" s="1"/>
+      <c r="D35" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -1077,7 +1148,9 @@
       <c r="C36" s="1">
         <v>105</v>
       </c>
-      <c r="D36" s="1"/>
+      <c r="D36" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -1091,7 +1164,9 @@
       <c r="C37" s="1">
         <v>106</v>
       </c>
-      <c r="D37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -1105,7 +1180,9 @@
       <c r="C38" s="1">
         <v>101</v>
       </c>
-      <c r="D38" s="1"/>
+      <c r="D38" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -1119,7 +1196,9 @@
       <c r="C39" s="1">
         <v>102</v>
       </c>
-      <c r="D39" s="1"/>
+      <c r="D39" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -1133,7 +1212,9 @@
       <c r="C40" s="1">
         <v>103</v>
       </c>
-      <c r="D40" s="1"/>
+      <c r="D40" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -1147,7 +1228,9 @@
       <c r="C41" s="1">
         <v>104</v>
       </c>
-      <c r="D41" s="1"/>
+      <c r="D41" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -1161,7 +1244,9 @@
       <c r="C42" s="1">
         <v>105</v>
       </c>
-      <c r="D42" s="1"/>
+      <c r="D42" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -1175,7 +1260,9 @@
       <c r="C43" s="1">
         <v>106</v>
       </c>
-      <c r="D43" s="1"/>
+      <c r="D43" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -1189,7 +1276,9 @@
       <c r="C44" s="1">
         <v>101</v>
       </c>
-      <c r="D44" s="1"/>
+      <c r="D44" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -1203,7 +1292,9 @@
       <c r="C45" s="1">
         <v>102</v>
       </c>
-      <c r="D45" s="1"/>
+      <c r="D45" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -1217,7 +1308,9 @@
       <c r="C46" s="1">
         <v>103</v>
       </c>
-      <c r="D46" s="1"/>
+      <c r="D46" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -1231,7 +1324,9 @@
       <c r="C47" s="1">
         <v>104</v>
       </c>
-      <c r="D47" s="1"/>
+      <c r="D47" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -1245,7 +1340,9 @@
       <c r="C48" s="1">
         <v>105</v>
       </c>
-      <c r="D48" s="1"/>
+      <c r="D48" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -1259,7 +1356,9 @@
       <c r="C49" s="1">
         <v>106</v>
       </c>
-      <c r="D49" s="1"/>
+      <c r="D49" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -1273,7 +1372,9 @@
       <c r="C50" s="1">
         <v>101</v>
       </c>
-      <c r="D50" s="1"/>
+      <c r="D50" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -1287,7 +1388,9 @@
       <c r="C51" s="1">
         <v>102</v>
       </c>
-      <c r="D51" s="1"/>
+      <c r="D51" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>patient</t>
   </si>
@@ -192,14 +192,161 @@
     <t>time</t>
   </si>
   <si>
-    <t>cancer</t>
+    <t>Disease</t>
+  </si>
+  <si>
+    <t>Asthma</t>
+  </si>
+  <si>
+    <t>Astigmatism</t>
+  </si>
+  <si>
+    <t>Breast cancer</t>
+  </si>
+  <si>
+    <t>Bronchitis</t>
+  </si>
+  <si>
+    <t>Chickenpox</t>
+  </si>
+  <si>
+    <t>Common cold</t>
+  </si>
+  <si>
+    <t>Dengue</t>
+  </si>
+  <si>
+    <t>Diabetes mellitus</t>
+  </si>
+  <si>
+    <t>Ebola</t>
+  </si>
+  <si>
+    <t>Epilepsy</t>
+  </si>
+  <si>
+    <t>Fibromyalgia</t>
+  </si>
+  <si>
+    <t>Gangrene</t>
+  </si>
+  <si>
+    <t>Genital herpes</t>
+  </si>
+  <si>
+    <t>Hepatitis A</t>
+  </si>
+  <si>
+    <t>Hepatitis B</t>
+  </si>
+  <si>
+    <t>Hepatitis C</t>
+  </si>
+  <si>
+    <t>Hepatitis D</t>
+  </si>
+  <si>
+    <t>Hepatitis E</t>
+  </si>
+  <si>
+    <t>Infertility</t>
+  </si>
+  <si>
+    <t>Influenza</t>
+  </si>
+  <si>
+    <t>Jaundice</t>
+  </si>
+  <si>
+    <t>Keloids</t>
+  </si>
+  <si>
+    <t>Kidney stone disease</t>
+  </si>
+  <si>
+    <t>Leukemia</t>
+  </si>
+  <si>
+    <t>Lung cancer</t>
+  </si>
+  <si>
+    <t>Malaria</t>
+  </si>
+  <si>
+    <t>Meningitis</t>
+  </si>
+  <si>
+    <t>Neoplasm</t>
+  </si>
+  <si>
+    <t>Night Blindness</t>
+  </si>
+  <si>
+    <t>Obesity</t>
+  </si>
+  <si>
+    <t>Otitis</t>
+  </si>
+  <si>
+    <t>Parkinson's disease</t>
+  </si>
+  <si>
+    <t>Psoriasis</t>
+  </si>
+  <si>
+    <t>Q fever</t>
+  </si>
+  <si>
+    <t>Rabies</t>
+  </si>
+  <si>
+    <t>Rheumatic fever</t>
+  </si>
+  <si>
+    <t>Stomach flu</t>
+  </si>
+  <si>
+    <t>Stomach ulcers</t>
+  </si>
+  <si>
+    <t>Tetanus</t>
+  </si>
+  <si>
+    <t>Thalassaemia</t>
+  </si>
+  <si>
+    <t>Ulcers</t>
+  </si>
+  <si>
+    <t>Uremia</t>
+  </si>
+  <si>
+    <t>Varicella</t>
+  </si>
+  <si>
+    <t>Varicose veins</t>
+  </si>
+  <si>
+    <t>Warkany syndrome</t>
+  </si>
+  <si>
+    <t>Warts</t>
+  </si>
+  <si>
+    <t>Yellow fever</t>
+  </si>
+  <si>
+    <t>Yersiniosis</t>
+  </si>
+  <si>
+    <t>CANCER</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,6 +363,14 @@
     <font>
       <sz val="26"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -238,10 +393,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -252,8 +408,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -555,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D51"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,7 +767,7 @@
       <c r="C2" s="1">
         <v>101</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>58</v>
       </c>
       <c r="E2" s="1"/>
@@ -620,8 +783,8 @@
       <c r="C3" s="1">
         <v>102</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>58</v>
+      <c r="D3" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -636,8 +799,8 @@
       <c r="C4" s="1">
         <v>103</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>58</v>
+      <c r="D4" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -652,8 +815,8 @@
       <c r="C5" s="1">
         <v>104</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>58</v>
+      <c r="D5" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -668,8 +831,8 @@
       <c r="C6" s="1">
         <v>105</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>58</v>
+      <c r="D6" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -684,8 +847,8 @@
       <c r="C7" s="1">
         <v>106</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>58</v>
+      <c r="D7" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -700,8 +863,8 @@
       <c r="C8" s="1">
         <v>101</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>58</v>
+      <c r="D8" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -716,8 +879,8 @@
       <c r="C9" s="1">
         <v>102</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>58</v>
+      <c r="D9" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -732,8 +895,8 @@
       <c r="C10" s="1">
         <v>103</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>58</v>
+      <c r="D10" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -748,8 +911,8 @@
       <c r="C11" s="1">
         <v>104</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>58</v>
+      <c r="D11" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -764,8 +927,8 @@
       <c r="C12" s="1">
         <v>105</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>58</v>
+      <c r="D12" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -780,8 +943,8 @@
       <c r="C13" s="1">
         <v>106</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>58</v>
+      <c r="D13" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -796,8 +959,8 @@
       <c r="C14" s="1">
         <v>101</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>58</v>
+      <c r="D14" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -812,8 +975,8 @@
       <c r="C15" s="1">
         <v>102</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>58</v>
+      <c r="D15" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -828,8 +991,8 @@
       <c r="C16" s="1">
         <v>103</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>58</v>
+      <c r="D16" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -844,8 +1007,8 @@
       <c r="C17" s="1">
         <v>104</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>58</v>
+      <c r="D17" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -860,8 +1023,8 @@
       <c r="C18" s="1">
         <v>105</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>58</v>
+      <c r="D18" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -876,8 +1039,8 @@
       <c r="C19" s="1">
         <v>106</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>58</v>
+      <c r="D19" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -892,8 +1055,8 @@
       <c r="C20" s="1">
         <v>101</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>58</v>
+      <c r="D20" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -908,8 +1071,8 @@
       <c r="C21" s="1">
         <v>102</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>58</v>
+      <c r="D21" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -924,8 +1087,8 @@
       <c r="C22" s="1">
         <v>103</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>58</v>
+      <c r="D22" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -940,8 +1103,8 @@
       <c r="C23" s="1">
         <v>104</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>58</v>
+      <c r="D23" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -956,8 +1119,8 @@
       <c r="C24" s="1">
         <v>105</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>58</v>
+      <c r="D24" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -972,8 +1135,8 @@
       <c r="C25" s="1">
         <v>106</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>58</v>
+      <c r="D25" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -988,8 +1151,8 @@
       <c r="C26" s="1">
         <v>101</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>58</v>
+      <c r="D26" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1004,8 +1167,8 @@
       <c r="C27" s="1">
         <v>102</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>58</v>
+      <c r="D27" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1020,8 +1183,8 @@
       <c r="C28" s="1">
         <v>103</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>58</v>
+      <c r="D28" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -1036,8 +1199,8 @@
       <c r="C29" s="1">
         <v>104</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>58</v>
+      <c r="D29" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1052,8 +1215,8 @@
       <c r="C30" s="1">
         <v>105</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>58</v>
+      <c r="D30" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -1068,8 +1231,8 @@
       <c r="C31" s="1">
         <v>106</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>58</v>
+      <c r="D31" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -1084,8 +1247,8 @@
       <c r="C32" s="1">
         <v>101</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>58</v>
+      <c r="D32" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1100,8 +1263,8 @@
       <c r="C33" s="1">
         <v>102</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>58</v>
+      <c r="D33" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -1116,8 +1279,8 @@
       <c r="C34" s="1">
         <v>103</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>58</v>
+      <c r="D34" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -1132,8 +1295,8 @@
       <c r="C35" s="1">
         <v>104</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>58</v>
+      <c r="D35" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -1148,8 +1311,8 @@
       <c r="C36" s="1">
         <v>105</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>58</v>
+      <c r="D36" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -1164,8 +1327,8 @@
       <c r="C37" s="1">
         <v>106</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>58</v>
+      <c r="D37" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -1180,8 +1343,8 @@
       <c r="C38" s="1">
         <v>101</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>58</v>
+      <c r="D38" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -1196,8 +1359,8 @@
       <c r="C39" s="1">
         <v>102</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>58</v>
+      <c r="D39" s="5" t="s">
+        <v>94</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -1212,8 +1375,8 @@
       <c r="C40" s="1">
         <v>103</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>58</v>
+      <c r="D40" s="5" t="s">
+        <v>95</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -1228,8 +1391,8 @@
       <c r="C41" s="1">
         <v>104</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>58</v>
+      <c r="D41" s="5" t="s">
+        <v>96</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -1244,8 +1407,8 @@
       <c r="C42" s="1">
         <v>105</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>58</v>
+      <c r="D42" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -1260,8 +1423,8 @@
       <c r="C43" s="1">
         <v>106</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>58</v>
+      <c r="D43" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -1276,8 +1439,8 @@
       <c r="C44" s="1">
         <v>101</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>58</v>
+      <c r="D44" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -1292,8 +1455,8 @@
       <c r="C45" s="1">
         <v>102</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>58</v>
+      <c r="D45" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -1308,8 +1471,8 @@
       <c r="C46" s="1">
         <v>103</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>58</v>
+      <c r="D46" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -1324,8 +1487,8 @@
       <c r="C47" s="1">
         <v>104</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>58</v>
+      <c r="D47" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -1340,8 +1503,8 @@
       <c r="C48" s="1">
         <v>105</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>58</v>
+      <c r="D48" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -1356,8 +1519,8 @@
       <c r="C49" s="1">
         <v>106</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>58</v>
+      <c r="D49" s="5" t="s">
+        <v>104</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -1372,8 +1535,8 @@
       <c r="C50" s="1">
         <v>101</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>58</v>
+      <c r="D50" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -1388,8 +1551,8 @@
       <c r="C51" s="1">
         <v>102</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>58</v>
+      <c r="D51" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -1400,8 +1563,51 @@
   <sortState ref="A2:A51">
     <sortCondition ref="A51"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" tooltip="Asthma" display="https://simple.wikipedia.org/wiki/Asthma"/>
+    <hyperlink ref="D4" r:id="rId2" tooltip="Astigmatism" display="https://simple.wikipedia.org/wiki/Astigmatism"/>
+    <hyperlink ref="D5" r:id="rId3" tooltip="Breast cancer" display="https://simple.wikipedia.org/wiki/Breast_cancer"/>
+    <hyperlink ref="D6" r:id="rId4" tooltip="Bronchitis" display="https://simple.wikipedia.org/wiki/Bronchitis"/>
+    <hyperlink ref="D7" r:id="rId5" display="https://simple.wikipedia.org/wiki/Chickenpox"/>
+    <hyperlink ref="D8" r:id="rId6" tooltip="Common cold" display="https://simple.wikipedia.org/wiki/Common_cold"/>
+    <hyperlink ref="D9" r:id="rId7" tooltip="Dengue" display="https://simple.wikipedia.org/wiki/Dengue"/>
+    <hyperlink ref="D10" r:id="rId8" tooltip="Diabetes mellitus" display="https://simple.wikipedia.org/wiki/Diabetes_mellitus"/>
+    <hyperlink ref="D11" r:id="rId9" display="https://simple.wikipedia.org/wiki/Ebola"/>
+    <hyperlink ref="D12" r:id="rId10" display="https://simple.wikipedia.org/wiki/Epilepsy"/>
+    <hyperlink ref="D13" r:id="rId11" tooltip="Fibromyalgia" display="https://simple.wikipedia.org/wiki/Fibromyalgia"/>
+    <hyperlink ref="D14" r:id="rId12" tooltip="Foodborne illness" display="https://simple.wikipedia.org/wiki/Foodborne_illness"/>
+    <hyperlink ref="D15" r:id="rId13" tooltip="Gangrene" display="https://simple.wikipedia.org/wiki/Gangrene"/>
+    <hyperlink ref="D16" r:id="rId14" tooltip="Genital herpes (not yet started)" display="https://simple.wikipedia.org/w/index.php?title=Genital_herpes&amp;action=edit&amp;redlink=1"/>
+    <hyperlink ref="D17" r:id="rId15" tooltip="Hepatitis A" display="https://simple.wikipedia.org/wiki/Hepatitis_A"/>
+    <hyperlink ref="D18" r:id="rId16" tooltip="Hepatitis B" display="https://simple.wikipedia.org/wiki/Hepatitis_B"/>
+    <hyperlink ref="D19" r:id="rId17" tooltip="Hepatitis C" display="https://simple.wikipedia.org/wiki/Hepatitis_C"/>
+    <hyperlink ref="D20" r:id="rId18" tooltip="Hepatitis D (not yet started)" display="https://simple.wikipedia.org/w/index.php?title=Hepatitis_D&amp;action=edit&amp;redlink=1"/>
+    <hyperlink ref="D21" r:id="rId19" tooltip="Hepatitis E (not yet started)" display="https://simple.wikipedia.org/w/index.php?title=Hepatitis_E&amp;action=edit&amp;redlink=1"/>
+    <hyperlink ref="D22" r:id="rId20" tooltip="Infertility" display="https://simple.wikipedia.org/wiki/Infertility"/>
+    <hyperlink ref="D23" r:id="rId21" tooltip="Influenza" display="https://simple.wikipedia.org/wiki/Influenza"/>
+    <hyperlink ref="D25" r:id="rId22" display="https://simple.wikipedia.org/wiki/Keloids"/>
+    <hyperlink ref="D26" r:id="rId23" tooltip="Kidney stone disease (not yet started)" display="https://simple.wikipedia.org/w/index.php?title=Kidney_stone_disease&amp;action=edit&amp;redlink=1"/>
+    <hyperlink ref="D27" r:id="rId24" display="https://simple.wikipedia.org/wiki/Leukemia"/>
+    <hyperlink ref="D28" r:id="rId25" display="https://simple.wikipedia.org/wiki/Lung_cancer"/>
+    <hyperlink ref="D35" r:id="rId26" display="https://simple.wikipedia.org/wiki/Parkinson%27s_disease"/>
+    <hyperlink ref="D36" r:id="rId27" display="https://simple.wikipedia.org/wiki/Psoriasis"/>
+    <hyperlink ref="D37" r:id="rId28" display="https://simple.wikipedia.org/wiki/Q_fever"/>
+    <hyperlink ref="D39" r:id="rId29" display="https://simple.wikipedia.org/wiki/Rheumatic_fever"/>
+    <hyperlink ref="D40" r:id="rId30" tooltip="Stomach flu" display="https://simple.wikipedia.org/wiki/Stomach_flu"/>
+    <hyperlink ref="D41" r:id="rId31" tooltip="Stomach ulcers" display="https://simple.wikipedia.org/wiki/Stomach_ulcers"/>
+    <hyperlink ref="D42" r:id="rId32" tooltip="Tetanus" display="https://simple.wikipedia.org/wiki/Tetanus"/>
+    <hyperlink ref="D43" r:id="rId33" tooltip="Thalassaemia" display="https://simple.wikipedia.org/wiki/Thalassaemia"/>
+    <hyperlink ref="D44" r:id="rId34" tooltip="Ulcers" display="https://simple.wikipedia.org/wiki/Ulcers"/>
+    <hyperlink ref="D45" r:id="rId35" tooltip="Uremia" display="https://simple.wikipedia.org/wiki/Uremia"/>
+    <hyperlink ref="D46" r:id="rId36" tooltip="Varicella" display="https://simple.wikipedia.org/wiki/Varicella"/>
+    <hyperlink ref="D47" r:id="rId37" tooltip="Varicose veins" display="https://simple.wikipedia.org/wiki/Varicose_veins"/>
+    <hyperlink ref="D48" r:id="rId38" tooltip="Warkany syndrome (not yet started)" display="https://simple.wikipedia.org/w/index.php?title=Warkany_syndrome&amp;action=edit&amp;redlink=1"/>
+    <hyperlink ref="D49" r:id="rId39" tooltip="Warts" display="https://simple.wikipedia.org/wiki/Warts"/>
+    <hyperlink ref="D50" r:id="rId40" tooltip="Yellow fever" display="https://simple.wikipedia.org/wiki/Yellow_fever"/>
+    <hyperlink ref="D51" r:id="rId41" tooltip="Yersiniosis (not yet started)" display="https://simple.wikipedia.org/w/index.php?title=Yersiniosis&amp;action=edit&amp;redlink=1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId42"/>
 </worksheet>
 </file>
 

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -210,9 +210,6 @@
     <t>Chickenpox</t>
   </si>
   <si>
-    <t>Common cold</t>
-  </si>
-  <si>
     <t>Dengue</t>
   </si>
   <si>
@@ -340,6 +337,9 @@
   </si>
   <si>
     <t>CANCER</t>
+  </si>
+  <si>
+    <t>Autism</t>
   </si>
 </sst>
 </file>
@@ -719,7 +719,7 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -864,7 +864,7 @@
         <v>101</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -880,7 +880,7 @@
         <v>102</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -896,7 +896,7 @@
         <v>103</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -912,7 +912,7 @@
         <v>104</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -928,7 +928,7 @@
         <v>105</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -944,7 +944,7 @@
         <v>106</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -960,7 +960,7 @@
         <v>101</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -976,7 +976,7 @@
         <v>102</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -992,7 +992,7 @@
         <v>103</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -1008,7 +1008,7 @@
         <v>104</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1024,7 +1024,7 @@
         <v>105</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -1040,7 +1040,7 @@
         <v>106</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1056,7 +1056,7 @@
         <v>101</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -1072,7 +1072,7 @@
         <v>102</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1088,7 +1088,7 @@
         <v>103</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -1104,7 +1104,7 @@
         <v>104</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1120,7 +1120,7 @@
         <v>105</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -1136,7 +1136,7 @@
         <v>106</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1152,7 +1152,7 @@
         <v>101</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1168,7 +1168,7 @@
         <v>102</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1184,7 +1184,7 @@
         <v>103</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -1200,7 +1200,7 @@
         <v>104</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1216,7 +1216,7 @@
         <v>105</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -1232,7 +1232,7 @@
         <v>106</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -1248,7 +1248,7 @@
         <v>101</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1264,7 +1264,7 @@
         <v>102</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -1280,7 +1280,7 @@
         <v>103</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -1296,7 +1296,7 @@
         <v>104</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -1312,7 +1312,7 @@
         <v>105</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -1328,7 +1328,7 @@
         <v>106</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -1344,7 +1344,7 @@
         <v>101</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -1360,7 +1360,7 @@
         <v>102</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -1376,7 +1376,7 @@
         <v>103</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -1392,7 +1392,7 @@
         <v>104</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -1408,7 +1408,7 @@
         <v>105</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -1424,7 +1424,7 @@
         <v>106</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -1440,7 +1440,7 @@
         <v>101</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -1456,7 +1456,7 @@
         <v>102</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -1472,7 +1472,7 @@
         <v>103</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -1488,7 +1488,7 @@
         <v>104</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -1504,7 +1504,7 @@
         <v>105</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -1520,7 +1520,7 @@
         <v>106</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -1536,7 +1536,7 @@
         <v>101</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -1552,7 +1552,7 @@
         <v>102</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <si>
     <t>patient</t>
   </si>
@@ -169,9 +169,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Annika Ford</t>
-  </si>
-  <si>
-    <t>consultTime</t>
   </si>
   <si>
     <t>consultRoom</t>
@@ -719,7 +716,7 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -737,26 +734,24 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
@@ -768,7 +763,7 @@
         <v>101</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -784,7 +779,7 @@
         <v>102</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -800,7 +795,7 @@
         <v>103</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -816,7 +811,7 @@
         <v>104</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -832,7 +827,7 @@
         <v>105</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -848,7 +843,7 @@
         <v>106</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -864,7 +859,7 @@
         <v>101</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -880,7 +875,7 @@
         <v>102</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -896,7 +891,7 @@
         <v>103</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -912,7 +907,7 @@
         <v>104</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -928,7 +923,7 @@
         <v>105</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -944,7 +939,7 @@
         <v>106</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -960,7 +955,7 @@
         <v>101</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -976,7 +971,7 @@
         <v>102</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -992,7 +987,7 @@
         <v>103</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -1008,7 +1003,7 @@
         <v>104</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1024,7 +1019,7 @@
         <v>105</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -1040,7 +1035,7 @@
         <v>106</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1056,7 +1051,7 @@
         <v>101</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -1072,7 +1067,7 @@
         <v>102</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1088,7 +1083,7 @@
         <v>103</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -1104,7 +1099,7 @@
         <v>104</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1120,7 +1115,7 @@
         <v>105</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -1136,7 +1131,7 @@
         <v>106</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1152,7 +1147,7 @@
         <v>101</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1168,7 +1163,7 @@
         <v>102</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1184,7 +1179,7 @@
         <v>103</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -1200,7 +1195,7 @@
         <v>104</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1216,7 +1211,7 @@
         <v>105</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -1232,7 +1227,7 @@
         <v>106</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -1248,7 +1243,7 @@
         <v>101</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1264,7 +1259,7 @@
         <v>102</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -1280,7 +1275,7 @@
         <v>103</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -1296,7 +1291,7 @@
         <v>104</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -1312,7 +1307,7 @@
         <v>105</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -1328,7 +1323,7 @@
         <v>106</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -1344,7 +1339,7 @@
         <v>101</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -1360,7 +1355,7 @@
         <v>102</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -1376,7 +1371,7 @@
         <v>103</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -1392,7 +1387,7 @@
         <v>104</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -1408,7 +1403,7 @@
         <v>105</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -1424,7 +1419,7 @@
         <v>106</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -1440,7 +1435,7 @@
         <v>101</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -1456,7 +1451,7 @@
         <v>102</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -1472,7 +1467,7 @@
         <v>103</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -1488,7 +1483,7 @@
         <v>104</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -1504,7 +1499,7 @@
         <v>105</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -1520,7 +1515,7 @@
         <v>106</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -1536,7 +1531,7 @@
         <v>101</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -1552,7 +1547,7 @@
         <v>102</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
